--- a/script_sql_usados/DATA.xlsx
+++ b/script_sql_usados/DATA.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\Desktop\proyect_App\backend\sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fer\Desktop\proyect_App\backend\restServer\script_sql_usados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C35934-D5B7-4A2A-89CF-03286D696978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC539310-DDAF-4638-BC13-7B3544B55B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15192E5B-E292-4BF4-98D8-A722B821CCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>UNO</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>VEINTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I1" sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,6 +501,9 @@
       <c r="E1" s="2">
         <v>123456</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G1" s="2">
         <v>3</v>
       </c>
@@ -533,7 +539,9 @@
       <c r="E2" s="2">
         <v>123456</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="3">
         <v>2</v>
       </c>
@@ -569,6 +577,9 @@
       <c r="E3" s="2">
         <v>123456</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
@@ -604,6 +615,9 @@
       <c r="E4" s="2">
         <v>123456</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="2">
         <v>3</v>
       </c>
@@ -639,7 +653,9 @@
       <c r="E5" s="2">
         <v>123456</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
@@ -662,11 +678,11 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>NAME1</v>
+        <v>NAME6</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>+RIGHT(L6,LEN(L6)-LEN(B6)-1)</f>
-        <v>LASTNAME1</v>
+        <v>LASTNAME6</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="3"/>
@@ -676,6 +692,9 @@
         <f>+E5</f>
         <v>123456</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
@@ -687,13 +706,13 @@
       </c>
       <c r="L6" s="1" t="str">
         <f>+"NAME"&amp;N6&amp;" LASTNAME"&amp;N6</f>
-        <v>NAME1 LASTNAME1</v>
+        <v>NAME6 LASTNAME6</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -702,11 +721,11 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B20" si="4">+UPPER(LEFT(L7,SEARCH(" ",L7)-1))</f>
-        <v>NAME2</v>
+        <v>NAME7</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" ref="C7:C20" si="5">+RIGHT(L7,LEN(L7)-LEN(B7)-1)</f>
-        <v>LASTNAME2</v>
+        <v>LASTNAME7</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="3"/>
@@ -716,6 +735,9 @@
         <f t="shared" ref="E7:E20" si="6">+E6</f>
         <v>123456</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
@@ -727,13 +749,13 @@
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" ref="L7:L20" si="7">+"NAME"&amp;N7&amp;" LASTNAME"&amp;N7</f>
-        <v>NAME2 LASTNAME2</v>
+        <v>NAME7 LASTNAME7</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -742,11 +764,11 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME3</v>
+        <v>NAME8</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME3</v>
+        <v>LASTNAME8</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ref="D8:D20" si="8">+M8&amp;"@"&amp;M8&amp;".COM"</f>
@@ -756,6 +778,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" s="2">
         <v>2</v>
       </c>
@@ -767,13 +792,13 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME3 LASTNAME3</v>
+        <v>NAME8 LASTNAME8</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -782,11 +807,11 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME4</v>
+        <v>NAME9</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME4</v>
+        <v>LASTNAME9</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="8"/>
@@ -796,6 +821,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
@@ -807,13 +835,13 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME4 LASTNAME4</v>
+        <v>NAME9 LASTNAME9</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -822,11 +850,11 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME5</v>
+        <v>NAME10</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME5</v>
+        <v>LASTNAME10</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="8"/>
@@ -836,6 +864,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
@@ -847,13 +878,13 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME5 LASTNAME5</v>
+        <v>NAME10 LASTNAME10</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -862,11 +893,11 @@
       </c>
       <c r="B11" s="2" t="str">
         <f>+UPPER(LEFT(L11,SEARCH(" ",L11)-1))</f>
-        <v>NAME6</v>
+        <v>NAME11</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME6</v>
+        <v>LASTNAME11</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="8"/>
@@ -876,6 +907,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="2">
         <v>2</v>
       </c>
@@ -887,13 +921,13 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME6 LASTNAME6</v>
+        <v>NAME11 LASTNAME11</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -902,11 +936,11 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME7</v>
+        <v>NAME12</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME7</v>
+        <v>LASTNAME12</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="8"/>
@@ -916,6 +950,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
@@ -927,13 +964,13 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME7 LASTNAME7</v>
+        <v>NAME12 LASTNAME12</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -942,11 +979,11 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME8</v>
+        <v>NAME13</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME8</v>
+        <v>LASTNAME13</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="8"/>
@@ -956,6 +993,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="2">
         <v>3</v>
       </c>
@@ -967,13 +1007,13 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME8 LASTNAME8</v>
+        <v>NAME13 LASTNAME13</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -982,11 +1022,11 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME9</v>
+        <v>NAME14</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME9</v>
+        <v>LASTNAME14</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="8"/>
@@ -996,6 +1036,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
@@ -1007,13 +1050,13 @@
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME9 LASTNAME9</v>
+        <v>NAME14 LASTNAME14</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N14" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1022,11 +1065,11 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME10</v>
+        <v>NAME15</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME10</v>
+        <v>LASTNAME15</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="8"/>
@@ -1036,6 +1079,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
@@ -1047,13 +1093,13 @@
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME10 LASTNAME10</v>
+        <v>NAME15 LASTNAME15</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1062,11 +1108,11 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME11</v>
+        <v>NAME16</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME11</v>
+        <v>LASTNAME16</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="8"/>
@@ -1076,6 +1122,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G16" s="2">
         <v>3</v>
       </c>
@@ -1087,13 +1136,13 @@
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME11 LASTNAME11</v>
+        <v>NAME16 LASTNAME16</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N16" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1102,11 +1151,11 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME12</v>
+        <v>NAME17</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME12</v>
+        <v>LASTNAME17</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="8"/>
@@ -1116,6 +1165,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
@@ -1127,13 +1179,13 @@
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME12 LASTNAME12</v>
+        <v>NAME17 LASTNAME17</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1142,11 +1194,11 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME13</v>
+        <v>NAME18</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME13</v>
+        <v>LASTNAME18</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="8"/>
@@ -1156,6 +1208,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G18" s="2">
         <v>1</v>
       </c>
@@ -1167,13 +1222,13 @@
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME13 LASTNAME13</v>
+        <v>NAME18 LASTNAME18</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N18" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1182,11 +1237,11 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME14</v>
+        <v>NAME19</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME14</v>
+        <v>LASTNAME19</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="8"/>
@@ -1196,6 +1251,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
@@ -1207,13 +1265,13 @@
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME14 LASTNAME14</v>
+        <v>NAME19 LASTNAME19</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1222,11 +1280,11 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>NAME15</v>
+        <v>NAME20</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>LASTNAME15</v>
+        <v>LASTNAME20</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="8"/>
@@ -1236,6 +1294,9 @@
         <f t="shared" si="6"/>
         <v>123456</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="2">
         <v>2</v>
       </c>
@@ -1247,13 +1308,13 @@
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>NAME15 LASTNAME15</v>
+        <v>NAME20 LASTNAME20</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N20" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
